--- a/bench/cpu.xlsx
+++ b/bench/cpu.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Cinebench R23" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Corona" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Vray" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Premiere" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Photoshop" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="AfterEffects" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Da Vinci" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Titoli" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cinebench R23" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Corona" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Vray" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Premiere" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Photoshop" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="AfterEffects" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Da Vinci" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +27,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="38">
+  <si>
+    <t xml:space="preserve">Scheda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sottotitolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinebench R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vray</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Premiere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photoshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AfterEffects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da Vinci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tmp8</t>
+  </si>
   <si>
     <t xml:space="preserve">CPU</t>
   </si>
@@ -47,6 +132,15 @@
   </si>
   <si>
     <t xml:space="preserve">M1 PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERALL</t>
   </si>
 </sst>
 </file>
@@ -61,6 +155,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -120,9 +215,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -142,17 +241,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.96"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -165,10 +262,175 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.78"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1948</v>
@@ -179,7 +441,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1461</v>
@@ -190,7 +452,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1470</v>
@@ -201,7 +463,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1456</v>
@@ -221,19 +483,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.23"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -244,19 +550,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>18566</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>10462</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>11227</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>5985</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -267,19 +617,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>848</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -290,19 +684,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>669</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -313,19 +751,63 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>1030</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -336,19 +818,67 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="280" zoomScaleNormal="280" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4101</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>3015</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>2772</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1241</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/bench/cpu.xlsx
+++ b/bench/cpu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Titoli" sheetId="1" state="visible" r:id="rId2"/>
@@ -243,8 +243,8 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,8 +406,8 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -490,7 +490,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -557,7 +557,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -624,7 +624,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -691,7 +691,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -758,7 +758,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -825,7 +825,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="250" zoomScaleNormal="250" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/bench/cpu.xlsx
+++ b/bench/cpu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Titoli" sheetId="1" state="visible" r:id="rId2"/>
@@ -243,11 +243,11 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.96"/>
   </cols>
@@ -407,10 +407,10 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.88"/>
@@ -494,7 +494,7 @@
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.23"/>
   </cols>
@@ -561,7 +561,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.17"/>
   </cols>
@@ -628,7 +628,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.71"/>
   </cols>
@@ -691,11 +691,11 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.83"/>
   </cols>
@@ -713,7 +713,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1326</v>
+        <v>1.326</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,7 +721,7 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1051</v>
+        <v>1.051</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,7 +729,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1041</v>
+        <v>1.041</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,7 +737,7 @@
         <v>34</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>669</v>
+        <v>6.69</v>
       </c>
     </row>
   </sheetData>
@@ -762,7 +762,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.11"/>
   </cols>
@@ -829,7 +829,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.17"/>
   </cols>
